--- a/uploads/Example.xlsx
+++ b/uploads/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x134102\Downloads\grusys-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499DFAF-FED6-4205-886E-0A5FF24F9E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBEA90-A2C3-466C-9713-B9E69716315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="606" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="606" activeTab="3" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="CSYSO" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>APP</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>EKIP</t>
-  </si>
-  <si>
-    <t>Usuario/Cuenta Red</t>
   </si>
   <si>
     <t>Perfil EKIP</t>
@@ -370,7 +367,7 @@
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{4901BB14-6269-4CA9-BAE8-934924431169}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{07663EF2-C0A5-4439-AEB6-AEA6F0AE22D6}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -546,22 +543,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -885,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCB1D98-B7FC-43AE-B0F3-2B036BDDAF54}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -984,19 +965,19 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="32">
         <v>45715</v>
@@ -1005,29 +986,29 @@
         <v>45715</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="32">
         <v>45715</v>
@@ -1035,26 +1016,26 @@
       <c r="G3" s="32"/>
       <c r="H3" s="30"/>
       <c r="I3" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="32">
         <v>45715</v>
@@ -1064,7 +1045,7 @@
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
@@ -1073,7 +1054,7 @@
   <sheetProtection autoFilter="0"/>
   <autoFilter ref="A1:BA1" xr:uid="{CFCB1D98-B7FC-43AE-B0F3-2B036BDDAF54}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA2">
-      <sortCondition sortBy="cellColor" ref="B1" dxfId="20"/>
+      <sortCondition sortBy="cellColor" ref="B1" dxfId="18"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4154,22 +4135,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="32">
         <v>45715</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="33"/>
@@ -4221,22 +4202,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="32">
         <v>45716</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="33"/>
@@ -4288,22 +4269,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="32">
         <v>45715</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="33"/>
@@ -4354,7 +4335,7 @@
   <sheetProtection autoFilter="0"/>
   <autoFilter ref="A1:I1" xr:uid="{AF788C3E-77E3-4C3A-A29D-A62A0C23BF4F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I2">
-      <sortCondition sortBy="cellColor" ref="A1" dxfId="19"/>
+      <sortCondition sortBy="cellColor" ref="A1" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4365,9 +4346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42DBAF4-8B3D-428F-8118-8AED264BE8A1}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4390,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>5</v>
@@ -4413,19 +4394,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="32">
         <v>45715</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30"/>
@@ -4435,19 +4416,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="32">
         <v>45716</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="30"/>
@@ -4457,19 +4438,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="32">
         <v>45715</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="30"/>
@@ -4502,25 +4483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19E968D034F77449748D740F2B753DC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0605bae6d38505a8ef848857e76ebd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="31580b42-fe88-41ba-b292-17d05e9e6b76" xmlns:ns4="32077590-fc5b-4237-82da-2dd6f73b345e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d747840030b93b86c1134f9e5dfc647" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4790,10 +4752,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
+    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4817,21 +4810,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
-    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/uploads/Example.xlsx
+++ b/uploads/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x134102\Downloads\grusys-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBEA90-A2C3-466C-9713-B9E69716315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBAC5D-5653-4230-9B29-F3BA40D144BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="606" activeTab="3" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
+    <workbookView xWindow="3792" yWindow="1128" windowWidth="17280" windowHeight="8976" tabRatio="606" activeTab="3" xr2:uid="{4CFA6121-B481-4121-B0C5-F1E3640F7FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="CSYSO" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>APP</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>EKIP</t>
-  </si>
-  <si>
-    <t>Perfil EKIP</t>
   </si>
   <si>
     <t>LanID</t>
@@ -965,19 +962,19 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="32">
         <v>45715</v>
@@ -986,29 +983,29 @@
         <v>45715</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="32">
         <v>45715</v>
@@ -1016,26 +1013,26 @@
       <c r="G3" s="32"/>
       <c r="H3" s="30"/>
       <c r="I3" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="32">
         <v>45715</v>
@@ -1045,7 +1042,7 @@
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
@@ -1077,7 +1074,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4135,22 +4132,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="32">
         <v>45715</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="33"/>
@@ -4202,22 +4199,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="32">
         <v>45716</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="33"/>
@@ -4269,22 +4266,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="32">
         <v>45715</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="33"/>
@@ -4348,7 +4345,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4374,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>5</v>
@@ -4394,19 +4391,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="32">
         <v>45715</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30"/>
@@ -4416,19 +4413,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="32">
         <v>45716</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="30"/>
@@ -4438,19 +4435,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="32">
         <v>45715</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="30"/>
@@ -4483,6 +4480,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19E968D034F77449748D740F2B753DC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0605bae6d38505a8ef848857e76ebd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="31580b42-fe88-41ba-b292-17d05e9e6b76" xmlns:ns4="32077590-fc5b-4237-82da-2dd6f73b345e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d747840030b93b86c1134f9e5dfc647" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4752,41 +4768,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="32077590-fc5b-4237-82da-2dd6f73b345e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
-    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4810,9 +4795,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836292F1-A02D-4A16-B3D7-2DA6170F1DDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A2C5-773A-4729-A2B1-102DED59C370}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="31580b42-fe88-41ba-b292-17d05e9e6b76"/>
+    <ds:schemaRef ds:uri="32077590-fc5b-4237-82da-2dd6f73b345e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>